--- a/data/sheet/2022/Schedule_Plus_2022W09_2022-02-28_2022-03-06.xlsx
+++ b/data/sheet/2022/Schedule_Plus_2022W09_2022-02-28_2022-03-06.xlsx
@@ -550,14 +550,14 @@
         </is>
       </c>
       <c r="F3" s="2" t="n">
-        <v>44620.00694444445</v>
+        <v>44620.00784722222</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>44620.03472222222</v>
+        <v>44620.03524305556</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>00:40:00</t>
+          <t>00:39:27</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -590,14 +590,14 @@
         </is>
       </c>
       <c r="F4" s="2" t="n">
-        <v>44620.03472222222</v>
+        <v>44620.03524305556</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>44620.04166666666</v>
+        <v>44620.04149305556</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>00:10:00</t>
+          <t>00:09:00</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -629,11 +629,11 @@
         <v>44620.04166666666</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>44620.04513888889</v>
+        <v>44620.04550925926</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>00:05:00</t>
+          <t>00:05:32</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -666,14 +666,14 @@
         </is>
       </c>
       <c r="F6" s="2" t="n">
-        <v>44620.04513888889</v>
+        <v>44620.04559027778</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>44620.0625</v>
+        <v>44620.06126157408</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>00:25:00</t>
+          <t>00:22:34</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -705,11 +705,11 @@
         <v>44620.0625</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>44620.06458333333</v>
+        <v>44620.06487268519</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>00:03:00</t>
+          <t>00:03:25</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -742,14 +742,14 @@
         </is>
       </c>
       <c r="F8" s="2" t="n">
-        <v>44620.06458333333</v>
+        <v>44620.0649537037</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>44620.08333333334</v>
+        <v>44620.0831712963</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>00:27:00</t>
+          <t>00:26:14</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -781,11 +781,11 @@
         <v>44620.08333333334</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>44620.08680555555</v>
+        <v>44620.08725694445</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>00:05:00</t>
+          <t>00:05:39</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -818,14 +818,14 @@
         </is>
       </c>
       <c r="F10" s="2" t="n">
-        <v>44620.08680555555</v>
+        <v>44620.08733796296</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>44620.10416666666</v>
+        <v>44620.10387731482</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>00:25:00</t>
+          <t>00:23:49</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -857,11 +857,11 @@
         <v>44620.10416666666</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>44620.10625</v>
+        <v>44620.10636574074</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>00:03:00</t>
+          <t>00:03:10</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -894,14 +894,14 @@
         </is>
       </c>
       <c r="F12" s="2" t="n">
-        <v>44620.10625</v>
+        <v>44620.10645833334</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>44620.125</v>
+        <v>44620.12417824074</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>00:27:00</t>
+          <t>00:25:31</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -933,11 +933,11 @@
         <v>44620.125</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>44620.12847222222</v>
+        <v>44620.12894675926</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>00:05:00</t>
+          <t>00:05:41</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -970,14 +970,14 @@
         </is>
       </c>
       <c r="F14" s="2" t="n">
-        <v>44620.12847222222</v>
+        <v>44620.12902777778</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>44620.14583333334</v>
+        <v>44620.14568287037</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>00:25:00</t>
+          <t>00:23:59</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -1009,11 +1009,11 @@
         <v>44620.14583333334</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>44620.14791666667</v>
+        <v>44620.14815972222</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>00:03:00</t>
+          <t>00:03:21</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -1046,14 +1046,14 @@
         </is>
       </c>
       <c r="F16" s="2" t="n">
-        <v>44620.14791666667</v>
+        <v>44620.14824074074</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>44620.16666666666</v>
+        <v>44620.1662037037</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>00:27:00</t>
+          <t>00:25:52</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -1085,11 +1085,11 @@
         <v>44620.16666666666</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>44620.17013888889</v>
+        <v>44620.17068287037</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>00:05:00</t>
+          <t>00:05:47</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -1122,14 +1122,14 @@
         </is>
       </c>
       <c r="F18" s="2" t="n">
-        <v>44620.17013888889</v>
+        <v>44620.17077546296</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>44620.20138888889</v>
+        <v>44620.1981712963</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>00:45:00</t>
+          <t>00:39:27</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -1162,14 +1162,14 @@
         </is>
       </c>
       <c r="F19" s="2" t="n">
-        <v>44620.20138888889</v>
+        <v>44620.1981712963</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>44620.20833333334</v>
+        <v>44620.20739583333</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>00:10:00</t>
+          <t>00:13:17</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -1605,11 +1605,11 @@
         <v>44620.41666666666</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>44620.42291666667</v>
+        <v>44620.42009259259</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>00:09:00</t>
+          <t>00:04:56</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -1681,11 +1681,11 @@
         <v>44620.4375</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>44620.43958333333</v>
+        <v>44620.43921296296</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>00:03:00</t>
+          <t>00:02:28</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -1765,11 +1765,11 @@
         <v>44620.45849537037</v>
       </c>
       <c r="G34" s="2" t="n">
-        <v>44620.46458333333</v>
+        <v>44620.46101851852</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>00:08:46</t>
+          <t>00:03:38</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -1802,14 +1802,14 @@
         </is>
       </c>
       <c r="F35" s="2" t="n">
-        <v>44620.46527777778</v>
+        <v>44620.461875</v>
       </c>
       <c r="G35" s="2" t="n">
-        <v>44620.47916666666</v>
+        <v>44620.47865740741</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>00:20:00</t>
+          <t>00:24:10</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -1841,11 +1841,11 @@
         <v>44620.47916666666</v>
       </c>
       <c r="G36" s="2" t="n">
-        <v>44620.48125</v>
+        <v>44620.4808912037</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>00:03:00</t>
+          <t>00:02:29</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -2005,11 +2005,11 @@
         <v>44620.54166666666</v>
       </c>
       <c r="G40" s="2" t="n">
-        <v>44620.54791666667</v>
+        <v>44620.54589120371</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>00:09:00</t>
+          <t>00:06:05</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -2085,11 +2085,11 @@
         <v>44620.5625</v>
       </c>
       <c r="G42" s="2" t="n">
-        <v>44620.56458333333</v>
+        <v>44620.56431712963</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>00:03:00</t>
+          <t>00:02:37</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
@@ -2122,14 +2122,14 @@
         </is>
       </c>
       <c r="F43" s="2" t="n">
-        <v>44620.56527777778</v>
+        <v>44620.56501157407</v>
       </c>
       <c r="G43" s="2" t="n">
-        <v>44620.58333333334</v>
+        <v>44620.58290509259</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>00:26:00</t>
+          <t>00:25:46</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -2169,11 +2169,11 @@
         <v>44620.58333333334</v>
       </c>
       <c r="G44" s="2" t="n">
-        <v>44620.58958333333</v>
+        <v>44620.58813657407</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>00:09:00</t>
+          <t>00:06:55</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
@@ -2206,14 +2206,14 @@
         </is>
       </c>
       <c r="F45" s="2" t="n">
-        <v>44620.59027777778</v>
+        <v>44620.58892361111</v>
       </c>
       <c r="G45" s="2" t="n">
         <v>44620.60416666666</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>00:20:00</t>
+          <t>00:21:57</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -2249,11 +2249,11 @@
         <v>44620.60416666666</v>
       </c>
       <c r="G46" s="2" t="n">
-        <v>44620.60555555556</v>
+        <v>44620.60633101852</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>00:02:00</t>
+          <t>00:03:07</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -2286,14 +2286,14 @@
         </is>
       </c>
       <c r="F47" s="2" t="n">
-        <v>44620.60625</v>
+        <v>44620.60693287037</v>
       </c>
       <c r="G47" s="2" t="n">
-        <v>44620.625</v>
+        <v>44620.62496527778</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>00:27:00</t>
+          <t>00:25:58</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
@@ -2409,11 +2409,11 @@
         <v>44620.66666666666</v>
       </c>
       <c r="G50" s="2" t="n">
-        <v>44620.67291666667</v>
+        <v>44620.67158564815</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>00:09:00</t>
+          <t>00:07:05</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
@@ -2446,14 +2446,14 @@
         </is>
       </c>
       <c r="F51" s="2" t="n">
-        <v>44620.67361111111</v>
+        <v>44620.67224537037</v>
       </c>
       <c r="G51" s="2" t="n">
         <v>44620.6875</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>00:20:00</t>
+          <t>00:21:58</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -2489,11 +2489,11 @@
         <v>44620.6875</v>
       </c>
       <c r="G52" s="2" t="n">
-        <v>44620.68958333333</v>
+        <v>44620.68956018519</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>00:03:00</t>
+          <t>00:02:58</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
@@ -2649,11 +2649,11 @@
         <v>44620.72916666666</v>
       </c>
       <c r="G56" s="2" t="n">
-        <v>44620.73055555556</v>
+        <v>44620.73125</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>00:02:00</t>
+          <t>00:03:00</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
@@ -2686,14 +2686,14 @@
         </is>
       </c>
       <c r="F57" s="2" t="n">
-        <v>44620.73125</v>
+        <v>44620.73186342593</v>
       </c>
       <c r="G57" s="2" t="n">
         <v>44620.74943287037</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>00:26:11</t>
+          <t>00:25:18</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -2854,14 +2854,14 @@
         </is>
       </c>
       <c r="F61" s="2" t="n">
-        <v>44620.79513888889</v>
+        <v>44620.79570601852</v>
       </c>
       <c r="G61" s="2" t="n">
-        <v>44620.8125</v>
+        <v>44620.81150462963</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>00:25:00</t>
+          <t>00:22:45</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
@@ -2930,14 +2930,14 @@
         </is>
       </c>
       <c r="F63" s="2" t="n">
-        <v>44620.81527777778</v>
+        <v>44620.81506944444</v>
       </c>
       <c r="G63" s="2" t="n">
-        <v>44620.83333333334</v>
+        <v>44620.83298611111</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>00:26:00</t>
+          <t>00:25:48</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -3014,14 +3014,14 @@
         </is>
       </c>
       <c r="F65" s="2" t="n">
-        <v>44620.83680555555</v>
+        <v>44620.83756944445</v>
       </c>
       <c r="G65" s="2" t="n">
-        <v>44620.85416666666</v>
+        <v>44620.85371527778</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>00:25:00</t>
+          <t>00:23:15</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -3094,14 +3094,14 @@
         </is>
       </c>
       <c r="F67" s="2" t="n">
-        <v>44620.85694444444</v>
+        <v>44620.85671296297</v>
       </c>
       <c r="G67" s="2" t="n">
-        <v>44620.875</v>
+        <v>44620.87462962963</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>00:26:00</t>
+          <t>00:25:48</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
@@ -3174,14 +3174,14 @@
         </is>
       </c>
       <c r="F69" s="2" t="n">
-        <v>44620.88194444445</v>
+        <v>44620.8789699074</v>
       </c>
       <c r="G69" s="2" t="n">
-        <v>44620.91666666666</v>
+        <v>44620.91534722222</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>00:50:00</t>
+          <t>00:52:23</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
@@ -3254,14 +3254,14 @@
         </is>
       </c>
       <c r="F71" s="2" t="n">
-        <v>44620.92013888889</v>
+        <v>44620.92070601852</v>
       </c>
       <c r="G71" s="2" t="n">
-        <v>44620.9375</v>
+        <v>44620.93642361111</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>00:25:00</t>
+          <t>00:22:38</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
@@ -3334,14 +3334,14 @@
         </is>
       </c>
       <c r="F73" s="2" t="n">
-        <v>44620.94097222222</v>
+        <v>44620.94004629629</v>
       </c>
       <c r="G73" s="2" t="n">
-        <v>44620.95833333334</v>
+        <v>44620.9580787037</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>00:25:00</t>
+          <t>00:25:58</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
@@ -3414,14 +3414,14 @@
         </is>
       </c>
       <c r="F75" s="2" t="n">
-        <v>44620.96111111111</v>
+        <v>44620.96231481482</v>
       </c>
       <c r="G75" s="2" t="n">
-        <v>44620.97916666666</v>
+        <v>44620.98020833333</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>00:26:00</t>
+          <t>00:25:46</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -3458,14 +3458,14 @@
         </is>
       </c>
       <c r="F76" s="2" t="n">
-        <v>44620.98125</v>
+        <v>44620.98033564815</v>
       </c>
       <c r="G76" s="2" t="n">
-        <v>44621</v>
+        <v>44620.99704861111</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>00:27:00</t>
+          <t>00:24:04</t>
         </is>
       </c>
       <c r="I76" t="inlineStr"/>
